--- a/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/B_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/B_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\135_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E75B6F2-D249-44FA-93EE-A6D5CB702BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.93334386907584E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.21107088938995891</v>
+      </c>
+      <c r="C3">
+        <v>0.99910825285982197</v>
+      </c>
+      <c r="D3">
+        <v>0.99980333280654621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.3510639628707606E-4</v>
+      </c>
+      <c r="B4">
+        <v>-6.7557761886412877E-5</v>
+      </c>
+      <c r="C4">
+        <v>0.99972981458803323</v>
+      </c>
+      <c r="D4">
+        <v>0.99993244680185644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.0010728835558711E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.58889098743705337</v>
+      </c>
+      <c r="C5">
+        <v>0.99896998834831108</v>
+      </c>
+      <c r="D5">
+        <v>0.99984994635582225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6.3589356193627204E-4</v>
+      </c>
+      <c r="B6">
+        <v>9.4922249339595116E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.99866192806857712</v>
+      </c>
+      <c r="D6">
+        <v>0.99968205321903192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.020633024437202E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.21423467931980331</v>
+      </c>
+      <c r="C7">
+        <v>0.9997680568027516</v>
+      </c>
+      <c r="D7">
+        <v>0.99994896834877811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6.5163383608693882E-5</v>
+      </c>
+      <c r="B8">
+        <v>7.6890494081201466E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.99986424968881471</v>
+      </c>
+      <c r="D8">
+        <v>0.99996741830819569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.6937793209320625E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.14530204380898221</v>
+      </c>
+      <c r="C9">
+        <v>0.99199812838183721</v>
+      </c>
+      <c r="D9">
+        <v>0.99815311033953402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.8587919492440457E-4</v>
+      </c>
+      <c r="B10">
+        <v>5.5462606811320439E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.99961736145866731</v>
+      </c>
+      <c r="D10">
+        <v>0.99990706040253785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.118920411336456E-3</v>
+      </c>
+      <c r="B11">
+        <v>0.22167374177288335</v>
+      </c>
+      <c r="C11">
+        <v>0.9974447545218813</v>
+      </c>
+      <c r="D11">
+        <v>0.99944053979433178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4.9199876583360432E-4</v>
+      </c>
+      <c r="B12">
+        <v>0.18410337574389299</v>
+      </c>
+      <c r="C12">
+        <v>0.99890524032014572</v>
+      </c>
+      <c r="D12">
+        <v>0.99975400061708319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.0789954777253922E-5</v>
+      </c>
+      <c r="B13">
+        <v>0.33331793800042847</v>
+      </c>
+      <c r="C13">
+        <v>0.99992302712760217</v>
+      </c>
+      <c r="D13">
+        <v>0.99998460502261133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.0579995344802048E-4</v>
+      </c>
+      <c r="B14">
+        <v>0.25532407568201437</v>
+      </c>
+      <c r="C14">
+        <v>0.99975214711409177</v>
+      </c>
+      <c r="D14">
+        <v>0.99994710002327603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.1336613753471838E-4</v>
+      </c>
+      <c r="B15">
+        <v>0.1599433131060099</v>
+      </c>
+      <c r="C15">
+        <v>0.99975169613386361</v>
+      </c>
+      <c r="D15">
+        <v>0.99994331693123262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.799699450191818E-5</v>
+      </c>
+      <c r="B16">
+        <v>-8.9985782246405072E-6</v>
+      </c>
+      <c r="C16">
+        <v>0.99996400649683392</v>
+      </c>
+      <c r="D16">
+        <v>0.99999100150274911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2.5657061304340854E-5</v>
+      </c>
+      <c r="B17">
+        <v>-1.2828695225480351E-5</v>
+      </c>
+      <c r="C17">
+        <v>0.99994868686481853</v>
+      </c>
+      <c r="D17">
+        <v>0.9999871714693479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5.0202123310758311E-4</v>
+      </c>
+      <c r="B18">
+        <v>0.41315670315572384</v>
+      </c>
+      <c r="C18">
+        <v>0.9986427703382752</v>
+      </c>
+      <c r="D18">
+        <v>0.99974898938344625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.258433925646566E-5</v>
+      </c>
+      <c r="B19">
+        <v>-4.1293874741913268E-5</v>
+      </c>
+      <c r="C19">
+        <v>0.99983484155174673</v>
+      </c>
+      <c r="D19">
+        <v>0.99995870783037177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.2826572997085397E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.68573390408306034</v>
+      </c>
+      <c r="C21">
+        <v>0.90505996323218052</v>
+      </c>
+      <c r="D21">
+        <v>0.98858671350145733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7.0715457683949575E-4</v>
+      </c>
+      <c r="B22">
+        <v>0.12709725976785988</v>
+      </c>
+      <c r="C22">
+        <v>0.99848322708437842</v>
+      </c>
+      <c r="D22">
+        <v>0.99964642271158022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.9103911173223753E-3</v>
+      </c>
+      <c r="B23">
+        <v>0.62372750575586622</v>
+      </c>
+      <c r="C23">
+        <v>0.99301611054143779</v>
+      </c>
+      <c r="D23">
+        <v>0.99904480444133881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.172815318352357E-6</v>
+      </c>
+      <c r="B24">
+        <v>-1.5864101758694318E-6</v>
+      </c>
+      <c r="C24">
+        <v>0.99999365438446342</v>
+      </c>
+      <c r="D24">
+        <v>0.99999841359234076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2.4015897847871124E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.80741695998169427</v>
+      </c>
+      <c r="C25">
+        <v>0.98513376620415727</v>
+      </c>
+      <c r="D25">
+        <v>0.99879920510760645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4.8020402450782203E-3</v>
+      </c>
+      <c r="B26">
+        <v>0.65014860424242471</v>
+      </c>
+      <c r="C26">
+        <v>0.98149511907691045</v>
+      </c>
+      <c r="D26">
+        <v>0.99759897987746082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.7212477761864085E-3</v>
+      </c>
+      <c r="B27">
+        <v>0.61407997699862049</v>
+      </c>
+      <c r="C27">
+        <v>0.99382159967726247</v>
+      </c>
+      <c r="D27">
+        <v>0.99913937611190684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3.1438901353301804E-5</v>
+      </c>
+      <c r="B28">
+        <v>0.92326448600927968</v>
+      </c>
+      <c r="C28">
+        <v>0.99955993992639902</v>
+      </c>
+      <c r="D28">
+        <v>0.99998428054932342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2.2983662446610869E-5</v>
+      </c>
+      <c r="B29">
+        <v>-1.1491963287007956E-5</v>
+      </c>
+      <c r="C29">
+        <v>0.99995403346748002</v>
+      </c>
+      <c r="D29">
+        <v>0.99998850816877671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3.5031863810356654E-3</v>
+      </c>
+      <c r="B30">
+        <v>0.38732134896554776</v>
+      </c>
+      <c r="C30">
+        <v>0.99079161298018614</v>
+      </c>
+      <c r="D30">
+        <v>0.99824840680948213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7.7144015237032618E-4</v>
+      </c>
+      <c r="B31">
+        <v>0.69089175134822145</v>
+      </c>
+      <c r="C31">
+        <v>0.99673490095867534</v>
+      </c>
+      <c r="D31">
+        <v>0.9996142799238148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.8804117027902117E-4</v>
+      </c>
+      <c r="B32">
+        <v>5.609394446651933E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.99899515279385998</v>
+      </c>
+      <c r="D32">
+        <v>0.9997559794148605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.3241207704783274E-3</v>
+      </c>
+      <c r="B33">
+        <v>0.46719425774981332</v>
+      </c>
+      <c r="C33">
+        <v>0.99619244765310488</v>
+      </c>
+      <c r="D33">
+        <v>0.99933793961476081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8.0313077952731769E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.78314420198513957</v>
+      </c>
+      <c r="C34">
+        <v>0.95500046273003547</v>
+      </c>
+      <c r="D34">
+        <v>0.9959843461023633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.7588219764747295E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.73647827512061792</v>
+      </c>
+      <c r="C35">
+        <v>0.91597816940527621</v>
+      </c>
+      <c r="D35">
+        <v>0.99120589011762639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9.898760298115046E-4</v>
+      </c>
+      <c r="B36">
+        <v>0.64087176065428964</v>
+      </c>
+      <c r="C36">
+        <v>0.99625478248170596</v>
+      </c>
+      <c r="D36">
+        <v>0.99950506198509415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2.7642460632151355E-4</v>
+      </c>
+      <c r="B37">
+        <v>0.37117355018484105</v>
+      </c>
+      <c r="C37">
+        <v>0.99928418806377828</v>
+      </c>
+      <c r="D37">
+        <v>0.9998617876968392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8.0059037949773023E-4</v>
+      </c>
+      <c r="B38">
+        <v>0.716891477441428</v>
+      </c>
+      <c r="C38">
+        <v>0.99637292100100017</v>
+      </c>
+      <c r="D38">
+        <v>0.99959970481025118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5.0470640375189346E-3</v>
+      </c>
+      <c r="B39">
+        <v>0.41189391207531145</v>
+      </c>
+      <c r="C39">
+        <v>0.98639651676577034</v>
+      </c>
+      <c r="D39">
+        <v>0.99747646798124057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7.2465894088308645E-3</v>
+      </c>
+      <c r="B40">
+        <v>0.49897495833141109</v>
+      </c>
+      <c r="C40">
+        <v>0.97834260241585969</v>
+      </c>
+      <c r="D40">
+        <v>0.99637670529558453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.6554143483654681E-4</v>
+      </c>
+      <c r="B41">
+        <v>0.80939094619450347</v>
+      </c>
+      <c r="C41">
+        <v>0.9983414082915204</v>
+      </c>
+      <c r="D41">
+        <v>0.99986722928258176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4.4489851162019031E-3</v>
+      </c>
+      <c r="B42">
+        <v>0.16183853725350023</v>
+      </c>
+      <c r="C42">
+        <v>0.99026277999819712</v>
+      </c>
+      <c r="D42">
+        <v>0.99777550744189902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.4667729930887824E-4</v>
+      </c>
+      <c r="B43">
+        <v>0.73135808615263287</v>
+      </c>
+      <c r="C43">
+        <v>0.99883514523166128</v>
+      </c>
+      <c r="D43">
+        <v>0.99987666135034559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1.3533537146089329E-4</v>
+      </c>
+      <c r="B44">
+        <v>4.8727353344423872E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.9997224174244822</v>
+      </c>
+      <c r="D44">
+        <v>0.99993233231426959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1.3852852751663276E-4</v>
+      </c>
+      <c r="B45">
+        <v>5.122967352061647E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.99971548477403149</v>
+      </c>
+      <c r="D45">
+        <v>0.99993073573624169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.5724326499790469E-4</v>
+      </c>
+      <c r="B46">
+        <v>0.27901668026982579</v>
+      </c>
+      <c r="C46">
+        <v>0.9993860653011889</v>
+      </c>
+      <c r="D46">
+        <v>0.99987137836750106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5.5916202294096248E-4</v>
+      </c>
+      <c r="B47">
+        <v>0.1508831175704308</v>
+      </c>
+      <c r="C47">
+        <v>0.99878262878609747</v>
+      </c>
+      <c r="D47">
+        <v>0.99972041898852948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.7039032775170443E-4</v>
+      </c>
+      <c r="B48">
+        <v>0.54531931006769485</v>
+      </c>
+      <c r="C48">
+        <v>0.99913500099057284</v>
+      </c>
+      <c r="D48">
+        <v>0.99986480483612417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>8.7823115880510377E-5</v>
+      </c>
+      <c r="B49">
+        <v>0.57150372413211414</v>
+      </c>
+      <c r="C49">
+        <v>0.99970728499826977</v>
+      </c>
+      <c r="D49">
+        <v>0.99995608844205974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8.38117587897582E-5</v>
+      </c>
+      <c r="B50">
+        <v>0.38884698013567431</v>
+      </c>
+      <c r="C50">
+        <v>0.99977905815582113</v>
+      </c>
+      <c r="D50">
+        <v>0.99995809412060521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>7.7397883167895361E-5</v>
+      </c>
+      <c r="B51">
+        <v>0.23073052988065831</v>
+      </c>
+      <c r="C51">
+        <v>0.99982199592106147</v>
+      </c>
+      <c r="D51">
+        <v>0.99996130105841596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1.0135553645233098E-4</v>
+      </c>
+      <c r="B52">
+        <v>0.18185107149174798</v>
+      </c>
+      <c r="C52">
+        <v>0.999774783427543</v>
+      </c>
+      <c r="D52">
+        <v>0.9999493222317738</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.681153882892349E-4</v>
+      </c>
+      <c r="B53">
+        <v>0.11991593427588843</v>
+      </c>
+      <c r="C53">
+        <v>0.99964089090871133</v>
+      </c>
+      <c r="D53">
+        <v>0.99991594230585545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1.360292311703426E-4</v>
+      </c>
+      <c r="B54">
+        <v>0.79062963769389272</v>
+      </c>
+      <c r="C54">
+        <v>0.99921428303130555</v>
+      </c>
+      <c r="D54">
+        <v>0.99993198538441486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7.7438639557980251E-5</v>
+      </c>
+      <c r="B55">
+        <v>0.77268854680995247</v>
+      </c>
+      <c r="C55">
+        <v>0.99958189539160103</v>
+      </c>
+      <c r="D55">
+        <v>0.99996128068022105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1.4727920086305611E-4</v>
+      </c>
+      <c r="B56">
+        <v>0.62966401992702603</v>
+      </c>
+      <c r="C56">
+        <v>0.99945516773937293</v>
+      </c>
+      <c r="D56">
+        <v>0.9999263603995685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1.3034198478257327E-5</v>
+      </c>
+      <c r="B57">
+        <v>-6.5171417119879556E-6</v>
+      </c>
+      <c r="C57">
+        <v>0.99997393185787886</v>
+      </c>
+      <c r="D57">
+        <v>0.99999348290076084</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1.5980056889002524E-4</v>
+      </c>
+      <c r="B58">
+        <v>0.30764883580619179</v>
+      </c>
+      <c r="C58">
+        <v>0.99960942856932344</v>
+      </c>
+      <c r="D58">
+        <v>0.99992009971555496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3.3647262290503734E-5</v>
+      </c>
+      <c r="B59">
+        <v>-1.6823914184578523E-5</v>
+      </c>
+      <c r="C59">
+        <v>0.99993270717362637</v>
+      </c>
+      <c r="D59">
+        <v>0.99998317636885481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1.3016506986096316E-4</v>
+      </c>
+      <c r="B60">
+        <v>0.24012722760459079</v>
+      </c>
+      <c r="C60">
+        <v>0.99969859673446371</v>
+      </c>
+      <c r="D60">
+        <v>0.99993491746506946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7.5938271320154085E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.7784070594579211</v>
+      </c>
+      <c r="C61">
+        <v>0.58714048041445677</v>
+      </c>
+      <c r="D61">
+        <v>0.96203086433992291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4.2706446517332096E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.84133265311755234</v>
+      </c>
+      <c r="C62">
+        <v>0.68996599423327998</v>
+      </c>
+      <c r="D62">
+        <v>0.97864677674133405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4.7315340467558302E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.81311816466871178</v>
+      </c>
+      <c r="C63">
+        <v>0.70174339206390246</v>
+      </c>
+      <c r="D63">
+        <v>0.97634232976622082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>5.1078885024160081E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.78655809097211049</v>
+      </c>
+      <c r="C64">
+        <v>0.71223117596104435</v>
+      </c>
+      <c r="D64">
+        <v>0.97446055748791982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4.2258689400339638E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.78088947832797062</v>
+      </c>
+      <c r="C65">
+        <v>0.76666945200604097</v>
+      </c>
+      <c r="D65">
+        <v>0.97887065529983019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4.4127009281699721E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.81576897688802419</v>
+      </c>
+      <c r="C66">
+        <v>0.71830655597713911</v>
+      </c>
+      <c r="D66">
+        <v>0.97793649535915017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6.0074941625392356E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.79625960884799618</v>
+      </c>
+      <c r="C67">
+        <v>0.6486834007423703</v>
+      </c>
+      <c r="D67">
+        <v>0.96996252918730386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5.7906513560697342E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.81767528684631041</v>
+      </c>
+      <c r="C68">
+        <v>0.62785052484285908</v>
+      </c>
+      <c r="D68">
+        <v>0.97104674321965134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6.0919736071271026E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.81293371255204772</v>
+      </c>
+      <c r="C69">
+        <v>0.61713813543654761</v>
+      </c>
+      <c r="D69">
+        <v>0.9695401319643645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>5.7137998469517899E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.78739348675214116</v>
+      </c>
+      <c r="C70">
+        <v>0.67738383466343866</v>
+      </c>
+      <c r="D70">
+        <v>0.97143100076524114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>5.8688275917129051E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.79514463560280846</v>
+      </c>
+      <c r="C71">
+        <v>0.65827642103900696</v>
+      </c>
+      <c r="D71">
+        <v>0.97065586204143539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3.1662820568641961E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.81827655949191669</v>
+      </c>
+      <c r="C72">
+        <v>0.7951181108333546</v>
+      </c>
+      <c r="D72">
+        <v>0.98416858971567911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6.8365892680199575E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.78593577857467112</v>
+      </c>
+      <c r="C73">
+        <v>0.61694436766687466</v>
+      </c>
+      <c r="D73">
+        <v>0.96581705365990012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>8.055024821394112E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.78628611627696987</v>
+      </c>
+      <c r="C74">
+        <v>0.54903681268461269</v>
+      </c>
+      <c r="D74">
+        <v>0.95972487589302946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6.0857489053089034E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.77739543626224528</v>
+      </c>
+      <c r="C75">
+        <v>0.66946553413468735</v>
+      </c>
+      <c r="D75">
+        <v>0.96957125547345546</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6.753480017961383E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.80023774165445549</v>
+      </c>
+      <c r="C76">
+        <v>0.59896005137088315</v>
+      </c>
+      <c r="D76">
+        <v>0.96623259991019306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5.4129503676261306E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.79853293050282659</v>
+      </c>
+      <c r="C77">
+        <v>0.68013773131489708</v>
+      </c>
+      <c r="D77">
+        <v>0.97293524816186938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6.4231581281780303E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.81412842398992147</v>
+      </c>
+      <c r="C78">
+        <v>0.59433724892292006</v>
+      </c>
+      <c r="D78">
+        <v>0.96788420935910979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.11659895397328869</v>
+      </c>
+      <c r="B79">
+        <v>0.73658304165692856</v>
+      </c>
+      <c r="C79">
+        <v>0.4543606720484501</v>
+      </c>
+      <c r="D79">
+        <v>0.94170052301335572</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>9.0478079533392652E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.7930541661408852</v>
+      </c>
+      <c r="C80">
+        <v>0.48051047772675926</v>
+      </c>
+      <c r="D80">
+        <v>0.95476096023330359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>7.5938271320154085E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.7784070594579211</v>
+      </c>
+      <c r="C81">
+        <v>0.58714048041445677</v>
+      </c>
+      <c r="D81">
+        <v>0.96203086433992291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.2706446517332096E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.84133265311755234</v>
+      </c>
+      <c r="C82">
+        <v>0.68996599423327998</v>
+      </c>
+      <c r="D82">
+        <v>0.97864677674133405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4.7315340467558302E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.81311816466871178</v>
+      </c>
+      <c r="C83">
+        <v>0.70174339206390246</v>
+      </c>
+      <c r="D83">
+        <v>0.97634232976622082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5.1078885024160081E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.78655809097211049</v>
+      </c>
+      <c r="C84">
+        <v>0.71223117596104435</v>
+      </c>
+      <c r="D84">
+        <v>0.97446055748791982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4.2258689400339638E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.78088947832797062</v>
+      </c>
+      <c r="C85">
+        <v>0.76666945200604097</v>
+      </c>
+      <c r="D85">
+        <v>0.97887065529983019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4.4127009281699721E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.81576897688802419</v>
+      </c>
+      <c r="C86">
+        <v>0.71830655597713911</v>
+      </c>
+      <c r="D86">
+        <v>0.97793649535915017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6.0074941625392356E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.79625960884799618</v>
+      </c>
+      <c r="C87">
+        <v>0.6486834007423703</v>
+      </c>
+      <c r="D87">
+        <v>0.96996252918730386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5.7906513560697342E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.81767528684631041</v>
+      </c>
+      <c r="C88">
+        <v>0.62785052484285908</v>
+      </c>
+      <c r="D88">
+        <v>0.97104674321965134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>6.0919736071271026E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.81293371255204772</v>
+      </c>
+      <c r="C89">
+        <v>0.61713813543654761</v>
+      </c>
+      <c r="D89">
+        <v>0.9695401319643645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5.7137998469517899E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.78739348675214116</v>
+      </c>
+      <c r="C90">
+        <v>0.67738383466343866</v>
+      </c>
+      <c r="D90">
+        <v>0.97143100076524114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5.8688275917129051E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.79514463560280846</v>
+      </c>
+      <c r="C91">
+        <v>0.65827642103900696</v>
+      </c>
+      <c r="D91">
+        <v>0.97065586204143539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3.1662820568641961E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.81827655949191669</v>
+      </c>
+      <c r="C92">
+        <v>0.7951181108333546</v>
+      </c>
+      <c r="D92">
+        <v>0.98416858971567911</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>6.8365892680199575E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.78593577857467112</v>
+      </c>
+      <c r="C93">
+        <v>0.61694436766687466</v>
+      </c>
+      <c r="D93">
+        <v>0.96581705365990012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>8.055024821394112E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.78628611627696987</v>
+      </c>
+      <c r="C94">
+        <v>0.54903681268461269</v>
+      </c>
+      <c r="D94">
+        <v>0.95972487589302946</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6.0857489053089034E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.77739543626224528</v>
+      </c>
+      <c r="C95">
+        <v>0.66946553413468735</v>
+      </c>
+      <c r="D95">
+        <v>0.96957125547345546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>6.753480017961383E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.80023774165445549</v>
+      </c>
+      <c r="C96">
+        <v>0.59896005137088315</v>
+      </c>
+      <c r="D96">
+        <v>0.96623259991019306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>5.4129503676261306E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.79853293050282659</v>
+      </c>
+      <c r="C97">
+        <v>0.68013773131489708</v>
+      </c>
+      <c r="D97">
+        <v>0.97293524816186938</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>6.4231581281780303E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.81412842398992147</v>
+      </c>
+      <c r="C98">
+        <v>0.59433724892292006</v>
+      </c>
+      <c r="D98">
+        <v>0.96788420935910979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.11659895397328869</v>
+      </c>
+      <c r="B99">
+        <v>0.73658304165692856</v>
+      </c>
+      <c r="C99">
+        <v>0.4543606720484501</v>
+      </c>
+      <c r="D99">
+        <v>0.94170052301335572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9.0478079533392652E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.7930541661408852</v>
+      </c>
+      <c r="C100">
+        <v>0.48051047772675926</v>
+      </c>
+      <c r="D100">
+        <v>0.95476096023330359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3.48722657964099E-5</v>
+      </c>
+      <c r="B101">
+        <v>0.14432036957330543</v>
+      </c>
+      <c r="C101">
+        <v>0.99992444548467907</v>
+      </c>
+      <c r="D101">
+        <v>0.99998256386710183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4.8186044656832287E-4</v>
+      </c>
+      <c r="B102">
+        <v>0.37264513722892029</v>
+      </c>
+      <c r="C102">
+        <v>0.99875101378305919</v>
+      </c>
+      <c r="D102">
+        <v>0.99975906977671569</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.5023985968295895E-3</v>
+      </c>
+      <c r="B103">
+        <v>0.71456260181454545</v>
+      </c>
+      <c r="C103">
+        <v>0.99324487999604671</v>
+      </c>
+      <c r="D103">
+        <v>0.99924880070158528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1.4055085122074594E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.70736234315501201</v>
+      </c>
+      <c r="C104">
+        <v>0.99380458402457517</v>
+      </c>
+      <c r="D104">
+        <v>0.99929724574389633</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.7653199599074682E-3</v>
+      </c>
+      <c r="B105">
+        <v>0.88729307261146795</v>
+      </c>
+      <c r="C105">
+        <v>0.98260589731460424</v>
+      </c>
+      <c r="D105">
+        <v>0.99911734002004626</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>6.8125097618280126E-4</v>
+      </c>
+      <c r="B106">
+        <v>0.80268924194862534</v>
+      </c>
+      <c r="C106">
+        <v>0.99589207067806118</v>
+      </c>
+      <c r="D106">
+        <v>0.99965937451190867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3.7383896886416179E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.61568670462687414</v>
+      </c>
+      <c r="C109">
+        <v>0.99865366968886859</v>
+      </c>
+      <c r="D109">
+        <v>0.99981308051556805</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2.2810797110632365E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.870438161748882</v>
+      </c>
+      <c r="C110">
+        <v>0.99804634126881964</v>
+      </c>
+      <c r="D110">
+        <v>0.99988594601444691</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2.2819501546021229E-5</v>
+      </c>
+      <c r="B111">
+        <v>0.40823742156721865</v>
+      </c>
+      <c r="C111">
+        <v>0.99993914926877192</v>
+      </c>
+      <c r="D111">
+        <v>0.99998859024922693</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1.3990939505994972E-3</v>
+      </c>
+      <c r="B112">
+        <v>0.67077101796136618</v>
+      </c>
+      <c r="C112">
+        <v>0.99435701300436552</v>
+      </c>
+      <c r="D112">
+        <v>0.99930045302470027</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3.7568222849132277E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.86841679870889499</v>
+      </c>
+      <c r="C113">
+        <v>0.99681082931907516</v>
+      </c>
+      <c r="D113">
+        <v>0.99981215888575425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5.7370700783110064E-5</v>
+      </c>
+      <c r="B114">
+        <v>0.82740394426205055</v>
+      </c>
+      <c r="C114">
+        <v>0.9996303310795257</v>
+      </c>
+      <c r="D114">
+        <v>0.99997131464960842</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>5.7026035236387171E-5</v>
+      </c>
+      <c r="B115">
+        <v>0.37497148568153504</v>
+      </c>
+      <c r="C115">
+        <v>0.99985173972287411</v>
+      </c>
+      <c r="D115">
+        <v>0.99997148698238192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>7.7247039120990492E-5</v>
+      </c>
+      <c r="B116">
+        <v>0.77455956521957714</v>
+      </c>
+      <c r="C116">
+        <v>0.9995860191311724</v>
+      </c>
+      <c r="D116">
+        <v>0.99996137648043959</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1.9108917798288689E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.9079839645594775</v>
+      </c>
+      <c r="C117">
+        <v>0.99776972083207349</v>
+      </c>
+      <c r="D117">
+        <v>0.99990445541100847</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>8.1079835997604458E-4</v>
+      </c>
+      <c r="B118">
+        <v>0.4451143888419285</v>
+      </c>
+      <c r="C118">
+        <v>0.99772903426749859</v>
+      </c>
+      <c r="D118">
+        <v>0.99959460082001184</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>6.0380964792250392E-4</v>
+      </c>
+      <c r="B119">
+        <v>0.75375538954278953</v>
+      </c>
+      <c r="C119">
+        <v>0.99696258030859086</v>
+      </c>
+      <c r="D119">
+        <v>0.99969809517603869</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>5.4348416830617727E-5</v>
+      </c>
+      <c r="B120">
+        <v>0.58318669597082029</v>
+      </c>
+      <c r="C120">
+        <v>0.99981884992671066</v>
+      </c>
+      <c r="D120">
+        <v>0.99997282579158464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>7.2148541114058357E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.78001608060017569</v>
+      </c>
+      <c r="C121">
+        <v>0.9600403201526484</v>
+      </c>
+      <c r="D121">
+        <v>0.99639257294429695</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>8.9566681194595613E-3</v>
+      </c>
+      <c r="B122">
+        <v>0.78884032733939191</v>
+      </c>
+      <c r="C122">
+        <v>0.94871134301032989</v>
+      </c>
+      <c r="D122">
+        <v>0.99552166594027025</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>4.8323360054194422E-3</v>
+      </c>
+      <c r="B123">
+        <v>0.80408009779199052</v>
+      </c>
+      <c r="C123">
+        <v>0.97053715646453276</v>
+      </c>
+      <c r="D123">
+        <v>0.99758383199729028</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1.0230957641621269E-2</v>
+      </c>
+      <c r="B124">
+        <v>0.7938040905965098</v>
+      </c>
+      <c r="C124">
+        <v>0.94027931155393329</v>
+      </c>
+      <c r="D124">
+        <v>0.99488452117918946</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>4.7752831344958502E-3</v>
+      </c>
+      <c r="B125">
+        <v>0.71672022319146633</v>
+      </c>
+      <c r="C125">
+        <v>0.97839178661805593</v>
+      </c>
+      <c r="D125">
+        <v>0.9976123584327522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>6.7865959811549015E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.83808823907441465</v>
+      </c>
+      <c r="C126">
+        <v>0.99513079967300688</v>
+      </c>
+      <c r="D126">
+        <v>0.99966067020094218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>3.149173709795304E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.76884543153511797</v>
+      </c>
+      <c r="C127">
+        <v>0.98323942848119839</v>
+      </c>
+      <c r="D127">
+        <v>0.99842541314510225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1.1041540857515176E-2</v>
+      </c>
+      <c r="B128">
+        <v>0.77288849077876431</v>
+      </c>
+      <c r="C128">
+        <v>0.94046783445871274</v>
+      </c>
+      <c r="D128">
+        <v>0.99447922957124235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>9.428960705062793E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.72427110801901096</v>
+      </c>
+      <c r="C129">
+        <v>0.95646798970255176</v>
+      </c>
+      <c r="D129">
+        <v>0.99528551964746859</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1.5754259420470089E-2</v>
+      </c>
+      <c r="B130">
+        <v>0.78776808415867061</v>
+      </c>
+      <c r="C130">
+        <v>0.91028143866774303</v>
+      </c>
+      <c r="D130">
+        <v>0.99212287028976476</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>3.7430610626486916E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.7454483973273871</v>
+      </c>
+      <c r="C131">
+        <v>0.9815709880838358</v>
+      </c>
+      <c r="D131">
+        <v>0.99812846946867562</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1.4408476617628586E-3</v>
+      </c>
+      <c r="B132">
+        <v>0.85143900384957261</v>
+      </c>
+      <c r="C132">
+        <v>0.9888626799236242</v>
+      </c>
+      <c r="D132">
+        <v>0.99927957616911856</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4.0196043863051376E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.75417565584265889</v>
+      </c>
+      <c r="C133">
+        <v>0.97964504068391201</v>
+      </c>
+      <c r="D133">
+        <v>0.9979901978068475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1.2212191000897793E-3</v>
+      </c>
+      <c r="B135">
+        <v>0.63391877276768593</v>
+      </c>
+      <c r="C135">
+        <v>0.99544557082342133</v>
+      </c>
+      <c r="D135">
+        <v>0.99938939044995512</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3.0907686014272082E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.77818951472118791</v>
+      </c>
+      <c r="C136">
+        <v>0.98298481987019071</v>
+      </c>
+      <c r="D136">
+        <v>0.9984546156992864</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1.9411615416800995E-3</v>
+      </c>
+      <c r="B137">
+        <v>0.86209087782052785</v>
+      </c>
+      <c r="C137">
+        <v>0.98401219511910021</v>
+      </c>
+      <c r="D137">
+        <v>0.99902941922916</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>8.3452757873687718E-3</v>
+      </c>
+      <c r="B138">
+        <v>0.88165777689375902</v>
+      </c>
+      <c r="C138">
+        <v>0.92122734480652702</v>
+      </c>
+      <c r="D138">
+        <v>0.99582736210631562</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2.9725454959473683E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.71752962011225163</v>
+      </c>
+      <c r="C139">
+        <v>0.98651294369577014</v>
+      </c>
+      <c r="D139">
+        <v>0.99851372725202625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2.4184661206254655E-3</v>
+      </c>
+      <c r="B140">
+        <v>0.72982130854624061</v>
+      </c>
+      <c r="C140">
+        <v>0.988644728316873</v>
+      </c>
+      <c r="D140">
+        <v>0.99879076693968727</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>9.2031773969963125E-5</v>
+      </c>
+      <c r="B141">
+        <v>0.52936574431885097</v>
+      </c>
+      <c r="C141">
+        <v>0.99971242829951856</v>
+      </c>
+      <c r="D141">
+        <v>0.99995398411301495</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>9.6218608678918513E-5</v>
+      </c>
+      <c r="B142">
+        <v>0.6670459767203325</v>
+      </c>
+      <c r="C142">
+        <v>0.99961517219664653</v>
+      </c>
+      <c r="D142">
+        <v>0.99995189069566048</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1.0238529292147901E-4</v>
+      </c>
+      <c r="B143">
+        <v>0.6666413141962213</v>
+      </c>
+      <c r="C143">
+        <v>0.99959051305388791</v>
+      </c>
+      <c r="D143">
+        <v>0.99994880735353919</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>4.9874620745071417E-5</v>
+      </c>
+      <c r="B145">
+        <v>0.66664172749054618</v>
+      </c>
+      <c r="C145">
+        <v>0.99980051519814761</v>
+      </c>
+      <c r="D145">
+        <v>0.99997506268962744</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>7.1807842214234713E-5</v>
+      </c>
+      <c r="B146">
+        <v>0.71871409149487098</v>
+      </c>
+      <c r="C146">
+        <v>0.99967291313516171</v>
+      </c>
+      <c r="D146">
+        <v>0.99996409607889292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>6.4405756264466135E-5</v>
+      </c>
+      <c r="B147">
+        <v>0.67996779388083728</v>
+      </c>
+      <c r="C147">
+        <v>0.99973435065791205</v>
+      </c>
+      <c r="D147">
+        <v>0.99996779712186779</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4.2395695988943205E-5</v>
+      </c>
+      <c r="B148">
+        <v>0.4444232457875914</v>
+      </c>
+      <c r="C148">
+        <v>0.99988129676040605</v>
+      </c>
+      <c r="D148">
+        <v>0.99997880215200552</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>9.8053635338530177E-5</v>
+      </c>
+      <c r="B150">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="C150">
+        <v>0.9996907820232851</v>
+      </c>
+      <c r="D150">
+        <v>0.99995097318233073</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>3.2700577165186963E-5</v>
+      </c>
+      <c r="B151">
+        <v>0.49999411382681697</v>
+      </c>
+      <c r="C151">
+        <v>0.99990190121984901</v>
+      </c>
+      <c r="D151">
+        <v>0.99998364971141729</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>5.4757577935433971E-5</v>
+      </c>
+      <c r="B152">
+        <v>0.70367632238460887</v>
+      </c>
+      <c r="C152">
+        <v>0.99976045567170613</v>
+      </c>
+      <c r="D152">
+        <v>0.99997262121103225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>7.1551998626201636E-5</v>
+      </c>
+      <c r="B153">
+        <v>0.59996971690168999</v>
+      </c>
+      <c r="C153">
+        <v>0.99974958866275143</v>
+      </c>
+      <c r="D153">
+        <v>0.99996422400068696</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>9.2450570462042741E-5</v>
+      </c>
+      <c r="B154">
+        <v>0.76591121239161053</v>
+      </c>
+      <c r="C154">
+        <v>0.99951261992170271</v>
+      </c>
+      <c r="D154">
+        <v>0.99995377471476898</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>6.540623403168115E-5</v>
+      </c>
+      <c r="B155">
+        <v>0.71425300742504139</v>
+      </c>
+      <c r="C155">
+        <v>0.99970570242743251</v>
+      </c>
+      <c r="D155">
+        <v>0.99996729688298414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2.0423898003053371E-5</v>
+      </c>
+      <c r="B158">
+        <v>0.33332312122790358</v>
+      </c>
+      <c r="C158">
+        <v>0.99994894114140553</v>
+      </c>
+      <c r="D158">
+        <v>0.99998978805099847</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7.4086225783064942E-5</v>
+      </c>
+      <c r="B159">
+        <v>0.64996295296614415</v>
+      </c>
+      <c r="C159">
+        <v>0.99971426673531516</v>
+      </c>
+      <c r="D159">
+        <v>0.99996295688710846</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7.7299079231556218E-5</v>
+      </c>
+      <c r="B160">
+        <v>0.67933057767217975</v>
+      </c>
+      <c r="C160">
+        <v>0.99968174436682422</v>
+      </c>
+      <c r="D160">
+        <v>0.99996135046038415</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>8.791479298264122E-5</v>
+      </c>
+      <c r="B162">
+        <v>0.74354577865617466</v>
+      </c>
+      <c r="C162">
+        <v>0.99956928402252321</v>
+      </c>
+      <c r="D162">
+        <v>0.99995604260350868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1.3021811534319987E-4</v>
+      </c>
+      <c r="B163">
+        <v>0.75919413258788337</v>
+      </c>
+      <c r="C163">
+        <v>0.9993290391134948</v>
+      </c>
+      <c r="D163">
+        <v>0.99993489094232835</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4.5966972730093427E-5</v>
+      </c>
+      <c r="B164">
+        <v>0.59997701519295754</v>
+      </c>
+      <c r="C164">
+        <v>0.99983912431141531</v>
+      </c>
+      <c r="D164">
+        <v>0.99997701651363491</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1.2234315372417265E-4</v>
+      </c>
+      <c r="B165">
+        <v>0.72334307021066324</v>
+      </c>
+      <c r="C165">
+        <v>0.99943545208076112</v>
+      </c>
+      <c r="D165">
+        <v>0.99993882842313786</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2.9002179997196457E-5</v>
+      </c>
+      <c r="B166">
+        <v>0.24998549862962044</v>
+      </c>
+      <c r="C166">
+        <v>0.99993232983546765</v>
+      </c>
+      <c r="D166">
+        <v>0.99998549891000144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7.7162809240675085E-5</v>
+      </c>
+      <c r="B167">
+        <v>0.689616586212219</v>
+      </c>
+      <c r="C167">
+        <v>0.99967423833605429</v>
+      </c>
+      <c r="D167">
+        <v>0.99996141859537968</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>3.674967499506176E-5</v>
+      </c>
+      <c r="B168">
+        <v>0.33331495798936989</v>
+      </c>
+      <c r="C168">
+        <v>0.99990812868240697</v>
+      </c>
+      <c r="D168">
+        <v>0.99998162516250255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>8.7885748526915015E-5</v>
+      </c>
+      <c r="B169">
+        <v>0.75551160478042356</v>
+      </c>
+      <c r="C169">
+        <v>0.9995526539996159</v>
+      </c>
+      <c r="D169">
+        <v>0.99995605712573654</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1.4215398830783445E-4</v>
+      </c>
+      <c r="B170">
+        <v>0.74018864381029703</v>
+      </c>
+      <c r="C170">
+        <v>0.999310723129198</v>
+      </c>
+      <c r="D170">
+        <v>0.99992892300584613</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1.0400531912917832E-4</v>
+      </c>
+      <c r="B171">
+        <v>0.77772576294612028</v>
+      </c>
+      <c r="C171">
+        <v>0.99942809108509822</v>
+      </c>
+      <c r="D171">
+        <v>0.99994799734043538</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1.4361110113811799E-4</v>
+      </c>
+      <c r="B172">
+        <v>0.7630860674097365</v>
+      </c>
+      <c r="C172">
+        <v>0.99925023537542845</v>
+      </c>
+      <c r="D172">
+        <v>0.99992819444943093</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1.044239612828082E-4</v>
+      </c>
+      <c r="B173">
+        <v>0.70468022811156239</v>
+      </c>
+      <c r="C173">
+        <v>0.99954221371331808</v>
+      </c>
+      <c r="D173">
+        <v>0.99994778801935857</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7.4157997734061184E-5</v>
+      </c>
+      <c r="B174">
+        <v>0.66662958354278434</v>
+      </c>
+      <c r="C174">
+        <v>0.99970339825581112</v>
+      </c>
+      <c r="D174">
+        <v>0.99996292100113293</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2.4914356898162566E-5</v>
+      </c>
+      <c r="B175">
+        <v>-1.245733363230934E-5</v>
+      </c>
+      <c r="C175">
+        <v>0.99995017221729154</v>
+      </c>
+      <c r="D175">
+        <v>0.999987542821551</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1.1500201253521937E-4</v>
+      </c>
+      <c r="B176">
+        <v>0.77935424870684877</v>
+      </c>
+      <c r="C176">
+        <v>0.99936380465508001</v>
+      </c>
+      <c r="D176">
+        <v>0.99994249899373233</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>9.7429089890514064E-5</v>
+      </c>
+      <c r="B177">
+        <v>0.7446321272224421</v>
+      </c>
+      <c r="C177">
+        <v>0.999521055942037</v>
+      </c>
+      <c r="D177">
+        <v>0.99995128545505474</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1.2457178449081283E-4</v>
+      </c>
+      <c r="B178">
+        <v>0.785651981712292</v>
+      </c>
+      <c r="C178">
+        <v>0.99929427771453594</v>
+      </c>
+      <c r="D178">
+        <v>0.99993771410775456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1.0974492746282391E-4</v>
+      </c>
+      <c r="B179">
+        <v>0.74994511548967557</v>
+      </c>
+      <c r="C179">
+        <v>0.99945138375822784</v>
+      </c>
+      <c r="D179">
+        <v>0.99994512753626863</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>8.791479298264122E-5</v>
+      </c>
+      <c r="B182">
+        <v>0.74354577865617466</v>
+      </c>
+      <c r="C182">
+        <v>0.99956928402252321</v>
+      </c>
+      <c r="D182">
+        <v>0.99995604260350868</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1.3021811534319987E-4</v>
+      </c>
+      <c r="B183">
+        <v>0.75919413258788337</v>
+      </c>
+      <c r="C183">
+        <v>0.9993290391134948</v>
+      </c>
+      <c r="D183">
+        <v>0.99993489094232835</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>4.5966972730093427E-5</v>
+      </c>
+      <c r="B184">
+        <v>0.59997701519295754</v>
+      </c>
+      <c r="C184">
+        <v>0.99983912431141531</v>
+      </c>
+      <c r="D184">
+        <v>0.99997701651363491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1.2234315372417265E-4</v>
+      </c>
+      <c r="B185">
+        <v>0.72334307021066324</v>
+      </c>
+      <c r="C185">
+        <v>0.99943545208076112</v>
+      </c>
+      <c r="D185">
+        <v>0.99993882842313786</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2.9002179997196457E-5</v>
+      </c>
+      <c r="B186">
+        <v>0.24998549862962044</v>
+      </c>
+      <c r="C186">
+        <v>0.99993232983546765</v>
+      </c>
+      <c r="D186">
+        <v>0.99998549891000144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>7.7162809240675085E-5</v>
+      </c>
+      <c r="B187">
+        <v>0.689616586212219</v>
+      </c>
+      <c r="C187">
+        <v>0.99967423833605429</v>
+      </c>
+      <c r="D187">
+        <v>0.99996141859537968</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>3.674967499506176E-5</v>
+      </c>
+      <c r="B188">
+        <v>0.33331495798936989</v>
+      </c>
+      <c r="C188">
+        <v>0.99990812868240697</v>
+      </c>
+      <c r="D188">
+        <v>0.99998162516250255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8.7885748526915015E-5</v>
+      </c>
+      <c r="B189">
+        <v>0.75551160478042356</v>
+      </c>
+      <c r="C189">
+        <v>0.9995526539996159</v>
+      </c>
+      <c r="D189">
+        <v>0.99995605712573654</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1.4215398830783445E-4</v>
+      </c>
+      <c r="B190">
+        <v>0.74018864381029703</v>
+      </c>
+      <c r="C190">
+        <v>0.999310723129198</v>
+      </c>
+      <c r="D190">
+        <v>0.99992892300584613</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1.0400531912917832E-4</v>
+      </c>
+      <c r="B191">
+        <v>0.77772576294612028</v>
+      </c>
+      <c r="C191">
+        <v>0.99942809108509822</v>
+      </c>
+      <c r="D191">
+        <v>0.99994799734043538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1.4361110113811799E-4</v>
+      </c>
+      <c r="B192">
+        <v>0.7630860674097365</v>
+      </c>
+      <c r="C192">
+        <v>0.99925023537542845</v>
+      </c>
+      <c r="D192">
+        <v>0.99992819444943093</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1.044239612828082E-4</v>
+      </c>
+      <c r="B193">
+        <v>0.70468022811156239</v>
+      </c>
+      <c r="C193">
+        <v>0.99954221371331808</v>
+      </c>
+      <c r="D193">
+        <v>0.99994778801935857</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>7.4157997734061184E-5</v>
+      </c>
+      <c r="B194">
+        <v>0.66662958354278434</v>
+      </c>
+      <c r="C194">
+        <v>0.99970339825581112</v>
+      </c>
+      <c r="D194">
+        <v>0.99996292100113293</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2.4914356898162566E-5</v>
+      </c>
+      <c r="B195">
+        <v>-1.245733363230934E-5</v>
+      </c>
+      <c r="C195">
+        <v>0.99995017221729154</v>
+      </c>
+      <c r="D195">
+        <v>0.999987542821551</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1.1500201253521937E-4</v>
+      </c>
+      <c r="B196">
+        <v>0.77935424870684877</v>
+      </c>
+      <c r="C196">
+        <v>0.99936380465508001</v>
+      </c>
+      <c r="D196">
+        <v>0.99994249899373233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>9.7429089890514064E-5</v>
+      </c>
+      <c r="B197">
+        <v>0.7446321272224421</v>
+      </c>
+      <c r="C197">
+        <v>0.999521055942037</v>
+      </c>
+      <c r="D197">
+        <v>0.99995128545505474</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1.2457178449081283E-4</v>
+      </c>
+      <c r="B198">
+        <v>0.785651981712292</v>
+      </c>
+      <c r="C198">
+        <v>0.99929427771453594</v>
+      </c>
+      <c r="D198">
+        <v>0.99993771410775456</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1.0974492746282391E-4</v>
+      </c>
+      <c r="B199">
+        <v>0.74994511548967557</v>
+      </c>
+      <c r="C199">
+        <v>0.99945138375822784</v>
+      </c>
+      <c r="D199">
+        <v>0.99994512753626863</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4.2676954657869527E-6</v>
+      </c>
+      <c r="B216">
+        <v>-2.1338522862093386E-6</v>
+      </c>
+      <c r="C216">
+        <v>0.99999146463638833</v>
+      </c>
+      <c r="D216">
+        <v>0.99999786615226716</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>2.9554539207790575E-5</v>
+      </c>
+      <c r="B221">
+        <v>-1.4777487974819162E-5</v>
+      </c>
+      <c r="C221">
+        <v>0.99994089223179039</v>
+      </c>
+      <c r="D221">
+        <v>0.99998522273039614</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1.8525941370448092E-4</v>
+      </c>
+      <c r="B222">
+        <v>0.69265559091914675</v>
+      </c>
+      <c r="C222">
+        <v>0.99921202149565247</v>
+      </c>
+      <c r="D222">
+        <v>0.9999073702931478</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>7.7520198553097117E-4</v>
+      </c>
+      <c r="B223">
+        <v>0.68513059644751273</v>
+      </c>
+      <c r="C223">
+        <v>0.9967634215277491</v>
+      </c>
+      <c r="D223">
+        <v>0.99961239900723453</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1.4495829860374095E-4</v>
+      </c>
+      <c r="B224">
+        <v>0.2221497363181418</v>
+      </c>
+      <c r="C224">
+        <v>0.99966870512676886</v>
+      </c>
+      <c r="D224">
+        <v>0.99992752085069814</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>2.0644345355719739E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.67297331451410225</v>
+      </c>
+      <c r="C225">
+        <v>0.99162708705765246</v>
+      </c>
+      <c r="D225">
+        <v>0.99896778273221398</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1.157924734892232E-3</v>
+      </c>
+      <c r="B226">
+        <v>0.70476423520441944</v>
+      </c>
+      <c r="C226">
+        <v>0.99492139295237336</v>
+      </c>
+      <c r="D226">
+        <v>0.99942103763255397</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>3.4460788831498762E-4</v>
+      </c>
+      <c r="B227">
+        <v>0.59030381400597942</v>
+      </c>
+      <c r="C227">
+        <v>0.99881438053581773</v>
+      </c>
+      <c r="D227">
+        <v>0.99982769605584243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>7.2970779422240205E-4</v>
+      </c>
+      <c r="B228">
+        <v>0.68620188507605107</v>
+      </c>
+      <c r="C228">
+        <v>0.99694541939629722</v>
+      </c>
+      <c r="D228">
+        <v>0.99963514610288884</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>7.0842477733917115E-4</v>
+      </c>
+      <c r="B229">
+        <v>0.69268335308672335</v>
+      </c>
+      <c r="C229">
+        <v>0.99698688215516917</v>
+      </c>
+      <c r="D229">
+        <v>0.99964578761133027</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1.2494858886187454E-4</v>
+      </c>
+      <c r="B230">
+        <v>0.66660418066092819</v>
+      </c>
+      <c r="C230">
+        <v>0.99950029151137676</v>
+      </c>
+      <c r="D230">
+        <v>0.99993752570556904</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1.4513717882351802E-4</v>
+      </c>
+      <c r="B232">
+        <v>0.73207026888763682</v>
+      </c>
+      <c r="C232">
+        <v>0.9993131852166246</v>
+      </c>
+      <c r="D232">
+        <v>0.99992743141058837</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>6.859228062473849E-5</v>
+      </c>
+      <c r="B233">
+        <v>0.37496570197762402</v>
+      </c>
+      <c r="C233">
+        <v>0.99982167079754991</v>
+      </c>
+      <c r="D233">
+        <v>0.99996570385968764</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1.329313168055396E-4</v>
+      </c>
+      <c r="B234">
+        <v>0.47612400209724337</v>
+      </c>
+      <c r="C234">
+        <v>0.99961334058711115</v>
+      </c>
+      <c r="D234">
+        <v>0.99993353434159726</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>2.2479728102336284E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.63428920436954273</v>
+      </c>
+      <c r="C235">
+        <v>0.99161022125784404</v>
+      </c>
+      <c r="D235">
+        <v>0.99887601359488321</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>9.284673904843699E-5</v>
+      </c>
+      <c r="B236">
+        <v>0.55550912733648394</v>
+      </c>
+      <c r="C236">
+        <v>0.99969827853929294</v>
+      </c>
+      <c r="D236">
+        <v>0.99995357663047579</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1.4659762616558202E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.56242668890436553</v>
+      </c>
+      <c r="C237">
+        <v>0.99951839971571987</v>
+      </c>
+      <c r="D237">
+        <v>0.99992670118691718</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2.9265289852513029E-4</v>
+      </c>
+      <c r="B238">
+        <v>0.65867714017793566</v>
+      </c>
+      <c r="C238">
+        <v>0.99885002489974506</v>
+      </c>
+      <c r="D238">
+        <v>0.9998536735507374</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1.126879599957742E-4</v>
+      </c>
+      <c r="B239">
+        <v>0.38455903547611775</v>
+      </c>
+      <c r="C239">
+        <v>0.99970422356967659</v>
+      </c>
+      <c r="D239">
+        <v>0.99994365602000213</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1.1040025612859422E-4</v>
+      </c>
+      <c r="B240">
+        <v>0.44438923883113768</v>
+      </c>
+      <c r="C240">
+        <v>0.9996909112159672</v>
+      </c>
+      <c r="D240">
+        <v>0.99994479987193563</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1.8976232269082974E-5</v>
+      </c>
+      <c r="B248">
+        <v>-9.4882061597434392E-6</v>
+      </c>
+      <c r="C248">
+        <v>0.99996204807560785</v>
+      </c>
+      <c r="D248">
+        <v>0.99999051188386545</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1.3200231004042571E-5</v>
+      </c>
+      <c r="B251">
+        <v>-6.6001590638334383E-6</v>
+      </c>
+      <c r="C251">
+        <v>0.99997359979936096</v>
+      </c>
+      <c r="D251">
+        <v>0.99999339988449809</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>8.1314299282157367E-5</v>
+      </c>
+      <c r="B252">
+        <v>0.49483222085532158</v>
+      </c>
+      <c r="C252">
+        <v>0.99975932924569011</v>
+      </c>
+      <c r="D252">
+        <v>0.99995934285035892</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1.8921893576963224E-5</v>
+      </c>
+      <c r="B257">
+        <v>-9.4610362988425986E-6</v>
+      </c>
+      <c r="C257">
+        <v>0.99996215674990307</v>
+      </c>
+      <c r="D257">
+        <v>0.99999053905321145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>9.4134258986880034E-6</v>
+      </c>
+      <c r="B259">
+        <v>0.33332862658715401</v>
+      </c>
+      <c r="C259">
+        <v>0.99997646662355499</v>
+      </c>
+      <c r="D259">
+        <v>0.99999529328705072</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1.8993352326685659E-4</v>
+      </c>
+      <c r="B322">
+        <v>0.31240502011846577</v>
+      </c>
+      <c r="C322">
+        <v>0.99953387377025482</v>
+      </c>
+      <c r="D322">
+        <v>0.99990503323836666</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>8.0475726508991724E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.26311765467613712</v>
+      </c>
+      <c r="C323">
+        <v>0.99981031965661138</v>
+      </c>
+      <c r="D323">
+        <v>0.99995976213674553</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>8.2553659878921291E-6</v>
+      </c>
+      <c r="B328">
+        <v>-3.8916329109075402E-6</v>
+      </c>
+      <c r="C328">
+        <v>0.99998348937403692</v>
+      </c>
+      <c r="D328">
+        <v>0.99999587231700604</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>2.3173896922506489E-4</v>
+      </c>
+      <c r="B331">
+        <v>0.46416981973430338</v>
+      </c>
+      <c r="C331">
+        <v>0.99933582888697736</v>
+      </c>
+      <c r="D331">
+        <v>0.99988413051538749</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>9.5160557006460341E-5</v>
+      </c>
+      <c r="B332">
+        <v>0.24995241670279469</v>
+      </c>
+      <c r="C332">
+        <v>0.99977797580521122</v>
+      </c>
+      <c r="D332">
+        <v>0.99995241972149673</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.5244367206317265E-5</v>
+      </c>
+      <c r="B333">
+        <v>-7.6222417012843473E-6</v>
+      </c>
+      <c r="C333">
+        <v>0.99996951161417347</v>
+      </c>
+      <c r="D333">
+        <v>0.99999237781639683</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>7.2645381569866693E-5</v>
+      </c>
+      <c r="B334">
+        <v>0.14282081862706519</v>
+      </c>
+      <c r="C334">
+        <v>0.99984261054214763</v>
+      </c>
+      <c r="D334">
+        <v>0.99996367730921509</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1.9500304692260815E-5</v>
+      </c>
+      <c r="B341">
+        <v>-9.7502474125280919E-6</v>
+      </c>
+      <c r="C341">
+        <v>0.9999609999610084</v>
+      </c>
+      <c r="D341">
+        <v>0.99999024984765394</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>6.1108197155413426E-5</v>
+      </c>
+      <c r="B342">
+        <v>-3.0555032159171344E-5</v>
+      </c>
+      <c r="C342">
+        <v>0.99987778920700676</v>
+      </c>
+      <c r="D342">
+        <v>0.99996944590142223</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>2.0493378077208801E-5</v>
+      </c>
+      <c r="B343">
+        <v>-1.0246794034316508E-5</v>
+      </c>
+      <c r="C343">
+        <v>0.99995901387381336</v>
+      </c>
+      <c r="D343">
+        <v>0.9999897533109614</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>0</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1.963072687554239E-3</v>
+      </c>
+      <c r="B362">
+        <v>0.80322426148719728</v>
+      </c>
+      <c r="C362">
+        <v>0.98807213533137661</v>
+      </c>
+      <c r="D362">
+        <v>0.99901846365622282</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>6.9721868476295152E-3</v>
+      </c>
+      <c r="B363">
+        <v>0.84934105211083188</v>
+      </c>
+      <c r="C363">
+        <v>0.94680166157526502</v>
+      </c>
+      <c r="D363">
+        <v>0.99651390657618522</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>9.9504343986517156E-4</v>
+      </c>
+      <c r="B364">
+        <v>0.87470505626590644</v>
+      </c>
+      <c r="C364">
+        <v>0.99111435690064553</v>
+      </c>
+      <c r="D364">
+        <v>0.99950247828006744</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1.5100401606425702E-2</v>
+      </c>
+      <c r="B365">
+        <v>0.84114516275111495</v>
+      </c>
+      <c r="C365">
+        <v>0.8900727342384801</v>
+      </c>
+      <c r="D365">
+        <v>0.99244979919678722</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>5.4635790863386945E-3</v>
+      </c>
+      <c r="B366">
+        <v>0.78971340091226538</v>
+      </c>
+      <c r="C366">
+        <v>0.96858511705603734</v>
+      </c>
+      <c r="D366">
+        <v>0.99726821045683067</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>5.9764122452872178E-4</v>
+      </c>
+      <c r="B367">
+        <v>0.68636756080228256</v>
+      </c>
+      <c r="C367">
+        <v>0.99749716936209198</v>
+      </c>
+      <c r="D367">
+        <v>0.99970117938773562</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>5.4639753812757083E-3</v>
+      </c>
+      <c r="B368">
+        <v>0.64815784260235476</v>
+      </c>
+      <c r="C368">
+        <v>0.9790364879573934</v>
+      </c>
+      <c r="D368">
+        <v>0.99726801230936224</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>5.0615215897998288E-4</v>
+      </c>
+      <c r="B369">
+        <v>0.75931082690948848</v>
+      </c>
+      <c r="C369">
+        <v>0.99739136931944128</v>
+      </c>
+      <c r="D369">
+        <v>0.99974692392051001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>8.3490404928463901E-4</v>
+      </c>
+      <c r="B370">
+        <v>0.70405956939285708</v>
+      </c>
+      <c r="C370">
+        <v>0.99634460346875353</v>
+      </c>
+      <c r="D370">
+        <v>0.99958254797535773</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>2.6166936331482751E-4</v>
+      </c>
+      <c r="B371">
+        <v>0.49986913107395398</v>
+      </c>
+      <c r="C371">
+        <v>0.99921519732262254</v>
+      </c>
+      <c r="D371">
+        <v>0.99986916531834258</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>2.5712959927799372E-3</v>
+      </c>
+      <c r="B372">
+        <v>0.76276980799029204</v>
+      </c>
+      <c r="C372">
+        <v>0.98659649285976525</v>
+      </c>
+      <c r="D372">
+        <v>0.99871435200361003</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>6.6398562505347817E-3</v>
+      </c>
+      <c r="B373">
+        <v>0.62335305369035365</v>
+      </c>
+      <c r="C373">
+        <v>0.97577627012495138</v>
+      </c>
+      <c r="D373">
+        <v>0.99668007187473262</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>3.1145844707546238E-3</v>
+      </c>
+      <c r="B374">
+        <v>0.50947206324766758</v>
+      </c>
+      <c r="C374">
+        <v>0.99054584367650766</v>
+      </c>
+      <c r="D374">
+        <v>0.99844270776462274</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>5.7456317050077089E-4</v>
+      </c>
+      <c r="B375">
+        <v>0.613867755500769</v>
+      </c>
+      <c r="C375">
+        <v>0.99793777112011572</v>
+      </c>
+      <c r="D375">
+        <v>0.99971271841474962</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>3.8296894253219203E-3</v>
+      </c>
+      <c r="B376">
+        <v>0.65397557428861586</v>
+      </c>
+      <c r="C376">
+        <v>0.98511730837852041</v>
+      </c>
+      <c r="D376">
+        <v>0.9980851552873391</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>6.7559491520125334E-3</v>
+      </c>
+      <c r="B377">
+        <v>0.71279176360901131</v>
+      </c>
+      <c r="C377">
+        <v>0.96976725306694378</v>
+      </c>
+      <c r="D377">
+        <v>0.9966220254239937</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>2.2236827899453169E-3</v>
+      </c>
+      <c r="B378">
+        <v>0.68312306789943589</v>
+      </c>
+      <c r="C378">
+        <v>0.99076376538684607</v>
+      </c>
+      <c r="D378">
+        <v>0.99888815860502733</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>3.9335591487659471E-3</v>
+      </c>
+      <c r="B379">
+        <v>0.66087895799591245</v>
+      </c>
+      <c r="C379">
+        <v>0.98448264067805935</v>
+      </c>
+      <c r="D379">
+        <v>0.99803322042561704</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>1.0697607438951634E-4</v>
+      </c>
+      <c r="B380">
+        <v>0.74504453995233</v>
+      </c>
+      <c r="C380">
+        <v>0.99947344806443972</v>
+      </c>
+      <c r="D380">
+        <v>0.99994651196280526</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1.963072687554239E-3</v>
+      </c>
+      <c r="B382">
+        <v>0.80322426148719728</v>
+      </c>
+      <c r="C382">
+        <v>0.98807213533137661</v>
+      </c>
+      <c r="D382">
+        <v>0.99901846365622282</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>6.9721868476295152E-3</v>
+      </c>
+      <c r="B383">
+        <v>0.84934105211083188</v>
+      </c>
+      <c r="C383">
+        <v>0.94680166157526502</v>
+      </c>
+      <c r="D383">
+        <v>0.99651390657618522</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>9.9504343986517156E-4</v>
+      </c>
+      <c r="B384">
+        <v>0.87470505626590644</v>
+      </c>
+      <c r="C384">
+        <v>0.99111435690064553</v>
+      </c>
+      <c r="D384">
+        <v>0.99950247828006744</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>1.5100401606425702E-2</v>
+      </c>
+      <c r="B385">
+        <v>0.84114516275111495</v>
+      </c>
+      <c r="C385">
+        <v>0.8900727342384801</v>
+      </c>
+      <c r="D385">
+        <v>0.99244979919678722</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>5.4635790863386945E-3</v>
+      </c>
+      <c r="B386">
+        <v>0.78971340091226538</v>
+      </c>
+      <c r="C386">
+        <v>0.96858511705603734</v>
+      </c>
+      <c r="D386">
+        <v>0.99726821045683067</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>5.9764122452872178E-4</v>
+      </c>
+      <c r="B387">
+        <v>0.68636756080228256</v>
+      </c>
+      <c r="C387">
+        <v>0.99749716936209198</v>
+      </c>
+      <c r="D387">
+        <v>0.99970117938773562</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>5.4639753812757083E-3</v>
+      </c>
+      <c r="B388">
+        <v>0.64815784260235476</v>
+      </c>
+      <c r="C388">
+        <v>0.9790364879573934</v>
+      </c>
+      <c r="D388">
+        <v>0.99726801230936224</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>5.0615215897998288E-4</v>
+      </c>
+      <c r="B389">
+        <v>0.75931082690948848</v>
+      </c>
+      <c r="C389">
+        <v>0.99739136931944128</v>
+      </c>
+      <c r="D389">
+        <v>0.99974692392051001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>8.3490404928463901E-4</v>
+      </c>
+      <c r="B390">
+        <v>0.70405956939285708</v>
+      </c>
+      <c r="C390">
+        <v>0.99634460346875353</v>
+      </c>
+      <c r="D390">
+        <v>0.99958254797535773</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>2.6166936331482751E-4</v>
+      </c>
+      <c r="B391">
+        <v>0.49986913107395398</v>
+      </c>
+      <c r="C391">
+        <v>0.99921519732262254</v>
+      </c>
+      <c r="D391">
+        <v>0.99986916531834258</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>2.5712959927799372E-3</v>
+      </c>
+      <c r="B392">
+        <v>0.76276980799029204</v>
+      </c>
+      <c r="C392">
+        <v>0.98659649285976525</v>
+      </c>
+      <c r="D392">
+        <v>0.99871435200361003</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>6.6398562505347817E-3</v>
+      </c>
+      <c r="B393">
+        <v>0.62335305369035365</v>
+      </c>
+      <c r="C393">
+        <v>0.97577627012495138</v>
+      </c>
+      <c r="D393">
+        <v>0.99668007187473262</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>3.1145844707546238E-3</v>
+      </c>
+      <c r="B394">
+        <v>0.50947206324766758</v>
+      </c>
+      <c r="C394">
+        <v>0.99054584367650766</v>
+      </c>
+      <c r="D394">
+        <v>0.99844270776462274</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>5.7456317050077089E-4</v>
+      </c>
+      <c r="B395">
+        <v>0.613867755500769</v>
+      </c>
+      <c r="C395">
+        <v>0.99793777112011572</v>
+      </c>
+      <c r="D395">
+        <v>0.99971271841474962</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>3.8296894253219203E-3</v>
+      </c>
+      <c r="B396">
+        <v>0.65397557428861586</v>
+      </c>
+      <c r="C396">
+        <v>0.98511730837852041</v>
+      </c>
+      <c r="D396">
+        <v>0.9980851552873391</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>6.7559491520125334E-3</v>
+      </c>
+      <c r="B397">
+        <v>0.71279176360901131</v>
+      </c>
+      <c r="C397">
+        <v>0.96976725306694378</v>
+      </c>
+      <c r="D397">
+        <v>0.9966220254239937</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>2.2236827899453169E-3</v>
+      </c>
+      <c r="B398">
+        <v>0.68312306789943589</v>
+      </c>
+      <c r="C398">
+        <v>0.99076376538684607</v>
+      </c>
+      <c r="D398">
+        <v>0.99888815860502733</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>3.9335591487659471E-3</v>
+      </c>
+      <c r="B399">
+        <v>0.66087895799591245</v>
+      </c>
+      <c r="C399">
+        <v>0.98448264067805935</v>
+      </c>
+      <c r="D399">
+        <v>0.99803322042561704</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>1.0697607438951634E-4</v>
+      </c>
+      <c r="B400">
+        <v>0.74504453995233</v>
+      </c>
+      <c r="C400">
+        <v>0.99947344806443972</v>
+      </c>
+      <c r="D400">
+        <v>0.99994651196280526</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>